--- a/test.xlsx
+++ b/test.xlsx
@@ -15,46 +15,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>センチメント</t>
-  </si>
-  <si>
-    <t>曇り空の透き間に
-あなた想う温もり
-かすかな光のなか
-目を閉じた
-いつもの世界を背に
-あなたを感じてたい
-心の真ん中で
-泣いていた
-会いに行きたい
-あなたはどこに
-ここにいるから
-ありのままの
-私を見つめてほしい
-曇り空をかきわけ
-あなたへの道しるべ
-広い世界のなか
-目を閉じた
-あなたに会えなくても
-夢の続きを見よう
-淡い世界よどうか
-覚めないで
-会いに行きたい
-あなたはどこに
-ここにいるから
-ありのままの
-私を見つめてほしい
-ここにいるから
-ありのままの
-私を見つめてほしい</t>
-  </si>
-  <si>
-    <t>絢香</t>
-  </si>
-  <si>
-    <t>河野圭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>Best friend!</t>
+  </si>
+  <si>
+    <t>(二人)手を伸ばし 掴んだ 輝きひとつで
+歩んだ道は 確かな 力になる!
+(京子)暗闇に迷う時だって (ハル:時だって) 一筋のひかり
+(ハル:いつだって) 守られてた
+どんな時も 一人じゃないんだ
+(ハル:温かい風) 包み込む
+(二人) ありのまま今
+(ハル) だから 恐れず 羽ばたいて行こう
+(京子:描いた夢)「希望(はな)」咲かすよ
+(二人) 心いっぱいに…
+(二人) 手を伸ばし 掴んだ 輝きひとつで
+歩んだ道は 確かな 力になる!
+どんなに 遠くても 想いは通じてる
+ありがとう これからも Dear My Best Friend☆
+(ハル) 揺るぎないものただ一つ (京子:ただひとつ) この胸高鳴る
+(京子:怖くない) 手を繋いで
+諦めないよ 勇気があるから
+(京子:虹の向こうに) 光る未来
+(二人) きっと見れるさ
+(京子) だから 信じて 今までの自分
+(ハル:二人の夢)「希望(はな)」咲かすよ
+(二人) 誓い忘れずに…
+(二人) 手を伸ばし 掴んだ 輝きひとつで
+歩んだ道は 確かな 力になる!
+どんなに 遠くても 想いはひとつさ
+ありがとう これからも Dear My Best Friend☆</t>
+  </si>
+  <si>
+    <t>稲村優奈</t>
+  </si>
+  <si>
+    <t>永井信行</t>
+  </si>
+  <si>
+    <t>見優</t>
+  </si>
+  <si>
+    <t>瀬川英史</t>
+  </si>
+  <si>
+    <t>家庭教師ヒットマンREBORN!</t>
   </si>
 </sst>
 </file>
@@ -415,21 +421,23 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s"/>
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
